--- a/public/form/코드등록양식.xlsx
+++ b/public/form/코드등록양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAAN\Desktop\vuePJ\wai_admin\public\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8FAF6-4562-4D03-8836-DD33C39A97CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9435D6-211D-486D-AA28-11F16A0843F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11942297-3C40-4C7F-B55B-21E8372467FC}"/>
+    <workbookView xWindow="3780" yWindow="3495" windowWidth="21600" windowHeight="11295" xr2:uid="{11942297-3C40-4C7F-B55B-21E8372467FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>순서이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>관리자 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,14 +132,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +476,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,30 +495,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
